--- a/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
+++ b/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Website\ONHIRsite\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5AE788-5E8A-45FB-B1A7-CA62837C6F7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37777311-4EFE-4AF5-945C-C3F216425391}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>-</t>
   </si>
@@ -177,10 +177,10 @@
     <t>Totals (for all Clients)</t>
   </si>
   <si>
-    <t>Navajo and Hopi Indian Relocation Program Status for DEC, 2019</t>
-  </si>
-  <si>
-    <t>Date of Report  January 1, 2020</t>
+    <t>Date of Report  April 1, 2020</t>
+  </si>
+  <si>
+    <t>Navajo and Hopi Indian Relocation Program Status for Mar, 2020</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -891,14 +891,14 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -930,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="9">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="9">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="9">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>18</v>
@@ -962,14 +962,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="9">
-        <v>3343</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f>+F7</f>
-        <v>+</v>
+        <v>3342</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1030,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -1039,13 +1038,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="9">
-        <v>3</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="G10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1083,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="10">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>14</v>
@@ -1092,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="10">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1106,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="10">
-        <v>-3591</v>
+        <v>-3593</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
@@ -1115,13 +1114,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="10">
-        <v>-3706</v>
+        <v>-3708</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1152,7 +1151,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>8</v>
@@ -1161,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>16</v>
@@ -1175,7 +1174,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="13">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>1</v>
@@ -1184,13 +1183,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="13">
-        <v>-3</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="G17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1221,7 +1220,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>8</v>
@@ -1230,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1274,7 +1273,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="10">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1283,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="10">
-        <v>3706</v>
+        <v>3708</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1297,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="18">
-        <v>-3567</v>
+        <v>-3579</v>
       </c>
       <c r="C23" s="18">
         <v>-88</v>
@@ -1306,13 +1305,13 @@
         <v>-27</v>
       </c>
       <c r="E23" s="18">
-        <v>-3682</v>
+        <v>-3694</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1320,7 +1319,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="13">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C24" s="13">
         <v>0</v>
@@ -1329,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1343,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>8</v>
@@ -1352,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G25" s="21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1366,7 +1365,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="20">
-        <v>-3208</v>
+        <v>-3209</v>
       </c>
       <c r="C26" s="20">
         <v>-121</v>
@@ -1375,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="20">
-        <v>-3340</v>
+        <v>-3341</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>16</v>

--- a/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
+++ b/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Website\ONHIRsite\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37777311-4EFE-4AF5-945C-C3F216425391}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F071989-0B6F-4C54-B91B-60D137749A64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Net Change   in Total</t>
   </si>
   <si>
-    <t>Net Change in  Totals Since  Mar 2, 2018</t>
-  </si>
-  <si>
     <t>OFFICE OF NAVAJO AND HOPI INDIAN RELOCATION - Monthly Numbers</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Navajo and Hopi Indian Relocation Program Status for Mar, 2020</t>
+  </si>
+  <si>
+    <t>Net Change in  Totals Since  20/03/01</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -885,20 +885,20 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -918,11 +918,11 @@
         <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8" t="s">
@@ -1058,7 +1058,7 @@
     </row>
     <row r="12" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>33</v>
@@ -1070,7 +1070,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
@@ -1102,7 +1102,7 @@
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="10">
         <v>-3593</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13">
         <v>5</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="17">
         <v>-1</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="13">
         <v>3</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="21" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -1261,7 +1261,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8" t="s">
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="10">
         <v>3593</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="13">
         <v>14</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="20">
         <v>3</v>

--- a/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
+++ b/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Website\ONHIRsite\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F071989-0B6F-4C54-B91B-60D137749A64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF804A74-C7D6-4128-AB4D-BD73579D6994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE A" sheetId="1" r:id="rId1"/>
@@ -174,13 +174,13 @@
     <t>Totals (for all Clients)</t>
   </si>
   <si>
-    <t>Date of Report  April 1, 2020</t>
-  </si>
-  <si>
-    <t>Navajo and Hopi Indian Relocation Program Status for Mar, 2020</t>
-  </si>
-  <si>
-    <t>Net Change in  Totals Since  20/03/01</t>
+    <t>Net Change in  Totals Since  20/09/01</t>
+  </si>
+  <si>
+    <t>Date of Report  October 1, 2020</t>
+  </si>
+  <si>
+    <t>Navajo and Hopi Indian Relocation Program Status for SEP, 2020</t>
   </si>
 </sst>
 </file>
@@ -869,42 +869,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -922,10 +922,10 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -945,10 +945,10 @@
         <v>16</v>
       </c>
       <c r="G5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -964,14 +964,14 @@
       <c r="E6" s="9">
         <v>3342</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>0</v>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1003,7 +1003,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1040,14 +1040,14 @@
       <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>0</v>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1056,7 +1056,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1097,15 +1097,15 @@
         <v>16</v>
       </c>
       <c r="G13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="10">
-        <v>-3593</v>
+        <v>-3594</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="10">
-        <v>-3708</v>
+        <v>-3709</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>16</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>24</v>
       </c>
@@ -1146,12 +1146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>8</v>
@@ -1160,21 +1160,21 @@
         <v>8</v>
       </c>
       <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="G16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>43</v>
       </c>
@@ -1235,10 +1235,10 @@
         <v>16</v>
       </c>
       <c r="G19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1247,7 +1247,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1268,12 +1268,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="10">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1282,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="10">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>16</v>
@@ -1291,12 +1291,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="18">
-        <v>-3579</v>
+        <v>-3581</v>
       </c>
       <c r="C23" s="18">
         <v>-88</v>
@@ -1305,21 +1305,21 @@
         <v>-27</v>
       </c>
       <c r="E23" s="18">
-        <v>-3694</v>
+        <v>-3696</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="13">
         <v>0</v>
@@ -1328,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G24" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>8</v>
@@ -1351,16 +1351,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G25" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>28</v>
       </c>

--- a/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
+++ b/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Website\ONHIRsite\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF804A74-C7D6-4128-AB4D-BD73579D6994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E12959D-A037-4DEE-B0EA-4B73AAA93653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -177,10 +179,10 @@
     <t>Net Change in  Totals Since  20/09/01</t>
   </si>
   <si>
-    <t>Date of Report  October 1, 2020</t>
-  </si>
-  <si>
-    <t>Navajo and Hopi Indian Relocation Program Status for SEP, 2020</t>
+    <t>Date of Report  January 1, 2021</t>
+  </si>
+  <si>
+    <t>Navajo and Hopi Indian Relocation Program Status for DEC, 2020</t>
   </si>
 </sst>
 </file>
@@ -869,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1038,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1120,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1166,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1174,7 +1176,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>1</v>
@@ -1183,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -1197,7 +1199,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>1</v>
@@ -1206,13 +1208,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="G18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1288,7 +1290,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1296,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="18">
-        <v>-3581</v>
+        <v>-3585</v>
       </c>
       <c r="C23" s="18">
         <v>-88</v>
@@ -1305,13 +1307,13 @@
         <v>-27</v>
       </c>
       <c r="E23" s="18">
-        <v>-3696</v>
+        <v>-3700</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1319,7 +1321,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="13">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="13">
         <v>0</v>
@@ -1328,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G24" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1342,7 +1344,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>8</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="20">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
         <v>4</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1365,7 +1367,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="20">
-        <v>-3209</v>
+        <v>-3207</v>
       </c>
       <c r="C26" s="20">
         <v>-121</v>
@@ -1374,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="20">
-        <v>-3341</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>16</v>
+        <v>-3339</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="G26" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
+++ b/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Website\ONHIRsite\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E12959D-A037-4DEE-B0EA-4B73AAA93653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9150E648-C62E-473E-A2D3-5471ED8045DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>-    0</t>
   </si>
@@ -179,10 +176,10 @@
     <t>Net Change in  Totals Since  20/09/01</t>
   </si>
   <si>
-    <t>Date of Report  January 1, 2021</t>
-  </si>
-  <si>
-    <t>Navajo and Hopi Indian Relocation Program Status for DEC, 2020</t>
+    <t>Date of Report  February 1, 2022</t>
+  </si>
+  <si>
+    <t>Navajo and Hopi Indian Relocation Program Status for JAN, 2022</t>
   </si>
 </sst>
 </file>
@@ -872,7 +869,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -887,20 +884,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2022</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -908,43 +908,43 @@
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="9">
-        <v>3842</v>
+        <v>3844</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -952,22 +952,22 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="9">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -975,22 +975,22 @@
     </row>
     <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="12">
         <v>6934</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="12">
         <v>7184</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="14">
         <v>0</v>
@@ -1007,46 +1007,46 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,43 +1060,43 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="10">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10">
-        <v>3842</v>
+        <v>3844</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -1104,22 +1104,22 @@
     </row>
     <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="10">
-        <v>-3594</v>
+        <v>-3595</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10">
-        <v>-3709</v>
+        <v>-3710</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -1127,22 +1127,22 @@
     </row>
     <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>5</v>
-      </c>
       <c r="D15" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="17">
         <v>-129</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -1150,22 +1150,22 @@
     </row>
     <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
@@ -1173,68 +1173,68 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="17">
         <v>0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="14">
         <v>0</v>
@@ -1251,43 +1251,43 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="10">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="10">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="11">
         <v>0</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="18">
-        <v>-3585</v>
+        <v>-3588</v>
       </c>
       <c r="C23" s="18">
         <v>-88</v>
@@ -1307,21 +1307,21 @@
         <v>-27</v>
       </c>
       <c r="E23" s="18">
-        <v>-3700</v>
+        <v>-3703</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="13">
         <v>0</v>
@@ -1330,59 +1330,59 @@
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G24" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="20">
         <v>0</v>
       </c>
       <c r="E25" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="20">
-        <v>-3207</v>
+        <v>-3206</v>
       </c>
       <c r="C26" s="20">
         <v>-121</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="20">
-        <v>-3339</v>
+        <v>-3338</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G26" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
+++ b/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diane\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Website\ONHIRsite\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9150E648-C62E-473E-A2D3-5471ED8045DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B523CA9-4E96-48BA-A531-6F3C1EF62E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>-    0</t>
   </si>
@@ -41,9 +41,6 @@
     <t>-    11</t>
   </si>
   <si>
-    <t>-    126</t>
-  </si>
-  <si>
     <t>-    2</t>
   </si>
   <si>
@@ -173,13 +170,16 @@
     <t>Totals (for all Clients)</t>
   </si>
   <si>
-    <t>Net Change in  Totals Since  20/09/01</t>
-  </si>
-  <si>
-    <t>Date of Report  February 1, 2022</t>
-  </si>
-  <si>
-    <t>Navajo and Hopi Indian Relocation Program Status for JAN, 2022</t>
+    <t>Date of Report  August 1, 2023</t>
+  </si>
+  <si>
+    <t>Navajo and Hopi Indian Relocation Program Status for JUL 2023</t>
+  </si>
+  <si>
+    <t>Net Change in  Totals Since  23/07/01</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -884,23 +884,20 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2022</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -908,43 +905,43 @@
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="9">
         <v>3726</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="9">
         <v>3844</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -952,22 +949,22 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9">
         <v>3208</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9">
         <v>3340</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -975,22 +972,22 @@
     </row>
     <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12">
         <v>6934</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="12">
         <v>7184</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="14">
         <v>0</v>
@@ -1007,46 +1004,46 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,43 +1057,43 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="10">
         <v>3726</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10">
         <v>3844</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -1104,22 +1101,22 @@
     </row>
     <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="10">
         <v>-3595</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="10">
         <v>-3710</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -1127,22 +1124,22 @@
     </row>
     <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="17">
+        <v>-124</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="17">
-        <v>-129</v>
+        <v>-127</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -1150,22 +1147,22 @@
     </row>
     <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="13">
         <v>7</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
       <c r="F16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
@@ -1173,10 +1170,10 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>0</v>
@@ -1185,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="E17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>0</v>
@@ -1208,36 +1205,36 @@
         <v>0</v>
       </c>
       <c r="E18" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G19" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,43 +1248,43 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="10">
         <v>3595</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10">
         <v>3710</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="11">
         <v>0</v>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="18">
         <v>-3588</v>
@@ -1307,10 +1304,10 @@
         <v>-27</v>
       </c>
       <c r="E23" s="18">
-        <v>-3703</v>
+        <v>-3709</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -1318,10 +1315,10 @@
     </row>
     <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C24" s="13">
         <v>0</v>
@@ -1330,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="14">
         <v>0</v>
@@ -1341,22 +1338,22 @@
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="20">
         <v>0</v>
       </c>
       <c r="E25" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="21">
         <v>0</v>
@@ -1364,10 +1361,10 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="20">
-        <v>-3206</v>
+        <v>-3201</v>
       </c>
       <c r="C26" s="20">
         <v>-121</v>
@@ -1376,13 +1373,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="20">
-        <v>-3338</v>
+        <v>-3333</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G26" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
+++ b/assets/documents/datasets/Monthly_Numbers_Qrtly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Website\ONHIRsite\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B523CA9-4E96-48BA-A531-6F3C1EF62E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8473BA96-F255-4BDD-8850-5E9C906E0B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>-    0</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>February 1,</t>
+  </si>
+  <si>
+    <t>r    Jan, 2024</t>
   </si>
 </sst>
 </file>
@@ -868,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -892,12 +898,21 @@
       <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2024</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1028,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
@@ -1037,13 +1052,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>0</v>
@@ -1182,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
@@ -1207,11 +1222,8 @@
       <c r="E18" s="17">
         <v>3</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1219,7 +1231,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>6</v>
@@ -1228,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="13">
-        <v>3</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="G19" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="18">
-        <v>-3588</v>
+        <v>-3595</v>
       </c>
       <c r="C23" s="18">
         <v>-88</v>
@@ -1304,7 +1316,7 @@
         <v>-27</v>
       </c>
       <c r="E23" s="18">
-        <v>-3709</v>
+        <v>-3710</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>14</v>
@@ -1318,7 +1330,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="13">
         <v>0</v>
@@ -1327,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>14</v>
@@ -1364,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="20">
-        <v>-3201</v>
+        <v>-3200</v>
       </c>
       <c r="C26" s="20">
         <v>-121</v>
@@ -1373,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="20">
-        <v>-3333</v>
+        <v>-3332</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
